--- a/document/excel_upload_자료/TBL_EXP_EXUPTBL.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_EXUPTBL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C990498D-CA3C-4C43-AB84-E870CF1EEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C751FD-7000-4DE2-8274-D299726039D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1170" windowWidth="19830" windowHeight="12045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBL_EXP_MENU" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>TBL_EXP_BUYER</t>
   </si>
   <si>
-    <t>BUYER_ID/BUYER_NM/TEL/ADDR/COMPANY_REGNUM/USE_YN/DEL_YN/HOW_GET</t>
-  </si>
-  <si>
     <t>TBL_EXP_SAMPLE</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>MENU_ID/GROUP_2/MENU_NM/GROUP_1/GROUP_3</t>
+  </si>
+  <si>
+    <t>BUYER_ID/BUYER_NM/TEL/ADDR/COMPANY_REGNUM/USE_YN/DEL_YN/HOW_GET/BUYER_PW</t>
   </si>
 </sst>
 </file>
@@ -419,14 +419,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="16.5"/>
@@ -774,13 +774,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -837,10 +837,10 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -961,39 +961,39 @@
         <v>45</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="33">
       <c r="A22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1006,18 +1006,18 @@
     </row>
     <row r="26" spans="1:2" ht="33">
       <c r="A26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/document/excel_upload_자료/TBL_EXP_EXUPTBL.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_EXUPTBL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C751FD-7000-4DE2-8274-D299726039D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D71A30-42C8-4247-904D-004DBACBCF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBL_EXP_MENU" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -213,6 +213,31 @@
   </si>
   <si>
     <t>BUYER_ID/BUYER_NM/TEL/ADDR/COMPANY_REGNUM/USE_YN/DEL_YN/HOW_GET/BUYER_PW</t>
+  </si>
+  <si>
+    <t>TBL_EXP_DIVISION</t>
+  </si>
+  <si>
+    <t>DIVISION_ID/DIVISION_NM/USE_YN/DEL_YN/DEPTH1/DEPTH2/DEPTH3/DEPTH4</t>
+  </si>
+  <si>
+    <t>TBL_EXP_ROLE</t>
+  </si>
+  <si>
+    <t>ROLE_ID/ROLE_NM/ROLE_DESC/USE_YN/DEL_YN/SORT_ORDER</t>
+  </si>
+  <si>
+    <t>TBL_EXP_ROLEMENU</t>
+  </si>
+  <si>
+    <t>ROLE_ID/MENU_ID/AUTH_TYPE</t>
+  </si>
+  <si>
+    <t>TBL_CMMT</t>
+  </si>
+  <si>
+    <t>샘플 파일입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -761,16 +786,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="104.75" customWidth="1"/>
-    <col min="3" max="5" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1">
@@ -835,6 +861,9 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="12" t="s">
@@ -843,181 +872,211 @@
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="49.5">
-      <c r="A7" s="11" t="s">
+    <row r="9" spans="1:17" ht="49.5">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33">
-      <c r="A8" s="11" t="s">
+    <row r="10" spans="1:17" ht="33">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="11" t="s">
+    <row r="11" spans="1:17">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="33">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="33">
       <c r="A13" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="33">
-      <c r="A16" s="11" t="s">
+    <row r="18" spans="1:3" ht="33">
+      <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="33">
-      <c r="A22" s="11" t="s">
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="33">
+      <c r="A24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="33">
-      <c r="A26" s="11" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/document/excel_upload_자료/TBL_EXP_EXUPTBL.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_EXUPTBL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D71A30-42C8-4247-904D-004DBACBCF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAADD28-D201-4508-9FD2-1518EAFE3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBL_EXP_MENU" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -203,9 +203,6 @@
     <t>TBL_EXP_BUYER_DETAIL</t>
   </si>
   <si>
-    <t>BUYER_ID/COMPANY_NM/ESTABLISHMENT_DATE/OWNER_NM/OWNER_BIRTHDAY/COMPANY_TYPE/SETTLEMENT_MONTH/EMPLOYEE_CNT/BUSINESS_TYPE/ADDRESS/COMPANY_CERT_STATUS/INDUSTRY_ESTATE_STATUS</t>
-  </si>
-  <si>
     <t>TBL_EXP_STORE_MENU_MASTER</t>
   </si>
   <si>
@@ -236,8 +233,82 @@
     <t>TBL_CMMT</t>
   </si>
   <si>
+    <t>TBL_EXP_FIN_ANAL_LIFECYCLE_ISSUE</t>
+  </si>
+  <si>
+    <t>ISSUE_CODE/CHECK_START_NUM/CHECK_END_NUM/ISSUE_TITLE/ISSUE_EXPLAIN/ISSUE_DETAIL</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;기업 라이프 사이클별 경영이슈 기준정보</t>
+  </si>
+  <si>
+    <t>TBL_EXP_VALUATION_REDUCTION_YEAR</t>
+  </si>
+  <si>
+    <t>BUYER_ID/YEAR/ITEM_NAME/AMOUNT/DEPTH/ORDER_NO</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업가치평가&gt;배당 및 퇴직금 플랜 적용시 주식가치 절감 효과</t>
+  </si>
+  <si>
+    <t>TBL_EXP_VALUATION_EXPECT_YEAR</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업가치평가&gt;연도별 기업가치 계산 상세</t>
+  </si>
+  <si>
+    <t>TBL_EXP_VALUATION_TAX_YEAR</t>
+  </si>
+  <si>
+    <t>BUYER_ID/YEAR/REP_AGE/COMPANY_VALUATION/PRICE_STOCK/VALUATION_TENPERCENT/CAPITAL_GAINS_TAX/GIFT_TAX</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업가치평가&gt;주식 이동 시 세금 비교</t>
+  </si>
+  <si>
+    <t>TBL_EXP_VALUATION_REFERENCE</t>
+  </si>
+  <si>
+    <t>SEQ/GUBUN_NAME/ITEM01_DESC/ITEM02_DESC/ITEM03_DESC/ITEM04_DESC</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업가치평가&gt;참고자료용 자료 테이블</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;기업개요&gt;자본금 및 주식 발행사항</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;기업개요&gt;주요 사업목적</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;주주 및 임원&gt;임원현황</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;재무비율분석(안정성지표, 수익성지표, 성장성지표, 활동성지표)</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;경영진단 결과 종합개요</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;재무상태표, 손익계산서, 경비율, 인건비 상세정보</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;재무상태표, 손익계산서, 경비율, 인건비 년도별 기준정보</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;주주 및 임원&gt;주요 주주현황</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업가치평가&gt;년도별 기업가치 예상 추이</t>
+  </si>
+  <si>
     <t>샘플 파일입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUYER_ID/COMPANY_NM/ESTABLISHMENT_DATE/OWNER_NM/OWNER_BIRTHDAY/COMPANY_TYPE/SETTLEMENT_MONTH/EMPLOYEE_CNT/BUSINESS_TYPE/ADDRESS/COMPANY_CERT_STATUS/INDUSTRY_ESTATE_STATUS/BASE_DATE</t>
+  </si>
+  <si>
+    <t>고객대시보드&gt;기업재무분석&gt;기업개요&gt;기업일반 적용데이터</t>
   </si>
 </sst>
 </file>
@@ -786,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="16.5"/>
@@ -862,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,210 +944,295 @@
         <v>18</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="49.5">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="33">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="11" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="11" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="33">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="33">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
         <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
